--- a/files/position_import_template.xlsx
+++ b/files/position_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmceacharn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmceacharn/source/macmce/officiatorxl/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A8545-7D68-DE45-B47B-188D04D3DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBBFDEA-8B9D-B643-B18F-1AAC34F5AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="-22120" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>QUADRANTS</t>
   </si>
   <si>
@@ -107,13 +98,22 @@
   </si>
   <si>
     <t>SNT Quad</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Strategy Name</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF58151C"/>
+      <name val="SF Pro Text"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -148,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,419 +460,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
